--- a/regionseng/9/employment and unemployment/employment and unemployment.xlsx
+++ b/regionseng/9/employment and unemployment/employment and unemployment.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -104,10 +104,6 @@
     </r>
   </si>
   <si>
-    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19 and 20th International Conference of Labour Statisticians;
-The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
-  </si>
-  <si>
     <t>Labour force</t>
   </si>
   <si>
@@ -124,6 +120,10 @@
       </rPr>
       <t>percentage</t>
     </r>
+  </si>
+  <si>
+    <t>*The data for 2010-2019 are recalculated according to the International Labour Organization (ILO) standards adopted at the 19th and 20th International Conferences of Labour Statisticians;
+The data for 2003-2009 are in line with the ILO's standards  adopted at the 13th International Conference of Labour Statisticians.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -450,14 +450,50 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -783,15 +819,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="4" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="4" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -838,56 +877,56 @@
       <c r="R2" s="11"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -896,7 +935,9 @@
       <c r="B5" s="3"/>
       <c r="O5"/>
       <c r="R5" s="8"/>
-      <c r="T5" s="9" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -959,6 +1000,12 @@
       <c r="T6" s="13">
         <v>2021</v>
       </c>
+      <c r="U6" s="13">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="13">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="28" t="s">
@@ -1021,10 +1068,16 @@
       <c r="T7" s="14">
         <v>243.16234748794989</v>
       </c>
+      <c r="U7" s="36">
+        <v>239.39030000171294</v>
+      </c>
+      <c r="V7" s="47">
+        <v>236.70820086572868</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="16">
         <v>193.99849669194836</v>
@@ -1082,6 +1135,12 @@
       </c>
       <c r="T8" s="16">
         <v>127.17474912874694</v>
+      </c>
+      <c r="U8" s="37">
+        <v>128.17470222518318</v>
+      </c>
+      <c r="V8" s="48">
+        <v>133.65783417756225</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
@@ -1145,6 +1204,12 @@
       <c r="T9" s="16">
         <v>116.10122356206008</v>
       </c>
+      <c r="U9" s="37">
+        <v>116.65141812451127</v>
+      </c>
+      <c r="V9" s="48">
+        <v>117.62430890944381</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="31" t="s">
@@ -1207,6 +1272,12 @@
       <c r="T10" s="16">
         <v>56.537744240995139</v>
       </c>
+      <c r="U10" s="37">
+        <v>59.642770161478552</v>
+      </c>
+      <c r="V10" s="48">
+        <v>65.31820735278751</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="31" t="s">
@@ -1269,6 +1340,12 @@
       <c r="T11" s="16">
         <v>59.563479321064918</v>
       </c>
+      <c r="U11" s="37">
+        <v>57.008647963032914</v>
+      </c>
+      <c r="V11" s="48">
+        <v>52.30610155665628</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="31" t="s">
@@ -1331,6 +1408,12 @@
       <c r="T12" s="16">
         <v>0</v>
       </c>
+      <c r="U12" s="37">
+        <v>0</v>
+      </c>
+      <c r="V12" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -1393,6 +1476,12 @@
       <c r="T13" s="16">
         <v>11.073525566686875</v>
       </c>
+      <c r="U13" s="37">
+        <v>11.523284100671928</v>
+      </c>
+      <c r="V13" s="48">
+        <v>16.033525268118289</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="32" t="s">
@@ -1455,6 +1544,12 @@
       <c r="T14" s="16">
         <v>115.98759835920296</v>
       </c>
+      <c r="U14" s="37">
+        <v>111.21559777652936</v>
+      </c>
+      <c r="V14" s="48">
+        <v>103.05036668816575</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="33" t="s">
@@ -1517,10 +1612,16 @@
       <c r="T15" s="19">
         <v>8.7073303800870505</v>
       </c>
+      <c r="U15" s="38">
+        <v>8.9902951991472513</v>
+      </c>
+      <c r="V15" s="49">
+        <v>11.995948734900203</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="19">
         <v>68.47945324937271</v>
@@ -1579,8 +1680,14 @@
       <c r="T16" s="19">
         <v>52.300346020902431</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="38">
+        <v>53.542145285028688</v>
+      </c>
+      <c r="V16" s="49">
+        <v>56.465231744707843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="35" t="s">
         <v>14</v>
       </c>
@@ -1641,60 +1748,71 @@
       <c r="T17" s="22">
         <v>47.746382102933751</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1">
+      <c r="U17" s="39">
+        <v>48.728548367948314</v>
+      </c>
+      <c r="V17" s="50">
+        <v>49.691691491570033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:20" ht="27" customHeight="1">
-      <c r="A19" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-    </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1">
-      <c r="A20" s="38" t="s">
+    <row r="19" spans="1:24" s="45" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+    </row>
+    <row r="20" spans="1:24" ht="30" customHeight="1">
+      <c r="A20" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1708,7 +1826,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:24">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1722,7 +1840,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:24">
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1736,7 +1854,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:24">
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1750,7 +1868,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:24">
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1764,7 +1882,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:24">
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1778,7 +1896,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:24">
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1792,12 +1910,6 @@
       <c r="M27"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
